--- a/Game/Resource/Table/Item.xlsx
+++ b/Game/Resource/Table/Item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA1C371-A2AC-4B7B-93B6-533BC8A51ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3873469E-6470-4343-875A-F74EC7BEF165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>猴子df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,42 +434,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -497,19 +497,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -517,19 +517,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -537,19 +537,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
